--- a/biology/Zoologie/Hydrellia_griseola/Hydrellia_griseola.xlsx
+++ b/biology/Zoologie/Hydrellia_griseola/Hydrellia_griseola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hydrellia griseola (mouche des céréales, mineuse des céréales, petite mineuse du riz) est une espèce d'insectes diptères de la famille des Ephydridae.
 Cet insecte est un oligophage inféodé aux espèces de la famille des Poaceae (graminées). Il est considéré comme un ravageur des cultures de céréales, en particulier l'orge, le blé et le riz. Les dégâts sont dus surtout aux larves (mineuses) qui attaquent le limbe et la gaine des feuilles ainsi que les racines dans le cas du riz, provoquant un affaiblissement des plantes et une baisse du rendement.
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Hydrellia chinensis Qu &amp; Li, 1983
 Hydrellia communis Robineau-Desvoidy, 1830
@@ -549,9 +563,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hydrellia griseola est une espèce à répartition cosmopolite[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hydrellia griseola est une espèce à répartition cosmopolite.
 </t>
         </is>
       </c>
